--- a/public/template.xlsx
+++ b/public/template.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="27">
   <si>
     <t>姓名</t>
   </si>
@@ -31,6 +31,72 @@
   </si>
   <si>
     <t>性别</t>
+  </si>
+  <si>
+    <t>丙丽芳</t>
+  </si>
+  <si>
+    <t>S1001</t>
+  </si>
+  <si>
+    <t>一班</t>
+  </si>
+  <si>
+    <t>女</t>
+  </si>
+  <si>
+    <t>公羊浩宇</t>
+  </si>
+  <si>
+    <t>S1002</t>
+  </si>
+  <si>
+    <t>三班</t>
+  </si>
+  <si>
+    <t>冉浩轩</t>
+  </si>
+  <si>
+    <t>S1003</t>
+  </si>
+  <si>
+    <t>男</t>
+  </si>
+  <si>
+    <t>卯梓萱</t>
+  </si>
+  <si>
+    <t>S1004</t>
+  </si>
+  <si>
+    <t>五班</t>
+  </si>
+  <si>
+    <t>夕雪</t>
+  </si>
+  <si>
+    <t>S1005</t>
+  </si>
+  <si>
+    <t>狂梓晨</t>
+  </si>
+  <si>
+    <t>S1006</t>
+  </si>
+  <si>
+    <t>二班</t>
+  </si>
+  <si>
+    <t>贸芳</t>
+  </si>
+  <si>
+    <t>S1007</t>
+  </si>
+  <si>
+    <t>顾帅</t>
+  </si>
+  <si>
+    <t>S1008</t>
   </si>
 </sst>
 </file>
@@ -998,10 +1064,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1024,6 +1090,142 @@
       </c>
       <c r="E1" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6">
+        <v>9</v>
+      </c>
+      <c r="E6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7">
+        <v>9</v>
+      </c>
+      <c r="E7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8">
+        <v>8</v>
+      </c>
+      <c r="E8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
